--- a/public/进项.xlsx
+++ b/public/进项.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet name="export_2024-09-27" sheetId="1" r:id="rId1"/>
+    <sheet name="export_2024-09-29" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>入库时间</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>供应商</t>
+  </si>
+  <si>
+    <t>生产厂家</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1215,19 +1221,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="17.125"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1258,37 +1260,113 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>45562.9391435185</v>
+        <v>45564.3601273148</v>
       </c>
       <c r="B2">
-        <v>213213</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>123</v>
       </c>
       <c r="D2">
-        <v>213</v>
+        <v>123</v>
       </c>
       <c r="E2">
         <v>123</v>
       </c>
       <c r="F2">
-        <v>213</v>
+        <v>123</v>
       </c>
       <c r="G2">
-        <v>213</v>
+        <v>123</v>
       </c>
       <c r="H2">
-        <v>213</v>
+        <v>123</v>
       </c>
       <c r="I2" s="2">
-        <v>45562</v>
+        <v>45564</v>
       </c>
       <c r="J2">
         <v>123</v>
+      </c>
+      <c r="K2">
+        <v>123123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>45562.9391435185</v>
+      </c>
+      <c r="B3">
+        <v>213213</v>
+      </c>
+      <c r="C3">
+        <v>123</v>
+      </c>
+      <c r="D3">
+        <v>213</v>
+      </c>
+      <c r="E3">
+        <v>123</v>
+      </c>
+      <c r="F3">
+        <v>213</v>
+      </c>
+      <c r="G3">
+        <v>213</v>
+      </c>
+      <c r="H3">
+        <v>213</v>
+      </c>
+      <c r="I3" s="2">
+        <v>45562</v>
+      </c>
+      <c r="J3">
+        <v>123</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>45562.9391435185</v>
+      </c>
+      <c r="B4">
+        <v>213213</v>
+      </c>
+      <c r="C4">
+        <v>123</v>
+      </c>
+      <c r="D4">
+        <v>213</v>
+      </c>
+      <c r="E4">
+        <v>123</v>
+      </c>
+      <c r="F4">
+        <v>213</v>
+      </c>
+      <c r="G4">
+        <v>213</v>
+      </c>
+      <c r="H4">
+        <v>213</v>
+      </c>
+      <c r="I4" s="2">
+        <v>45562</v>
+      </c>
+      <c r="J4">
+        <v>123</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
